--- a/chile/pruebas.xlsx
+++ b/chile/pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/carlos_galeana_betancourt_intel_com/Documents/Documents/Licitaciones/chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0E9FF15-9BA7-4BA4-8C2E-6D0886922B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{B0E9FF15-9BA7-4BA4-8C2E-6D0886922B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEBA87E-C6DB-4D27-A7E3-8D0A82B03A82}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7513E270-662B-4E94-960E-A800442B2A61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7513E270-662B-4E94-960E-A800442B2A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -1143,11 +1143,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C823D1-1C37-4748-B266-37BD2F4017F7}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:AS12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="84.26953125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -2795,6 +2798,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2802,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D20356-B548-4FA3-BACE-064E05618D48}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/chile/pruebas.xlsx
+++ b/chile/pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/carlos_galeana_betancourt_intel_com/Documents/Documents/Licitaciones/chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{B0E9FF15-9BA7-4BA4-8C2E-6D0886922B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAEBA87E-C6DB-4D27-A7E3-8D0A82B03A82}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{B0E9FF15-9BA7-4BA4-8C2E-6D0886922B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{672834CA-6AE8-48A2-A55D-28296C3FF6FE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{7513E270-662B-4E94-960E-A800442B2A61}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7513E270-662B-4E94-960E-A800442B2A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos crudos" sheetId="1" r:id="rId1"/>
@@ -804,12 +804,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -824,9 +830,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C823D1-1C37-4748-B266-37BD2F4017F7}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1153,13 +1160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2806,11 +2813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D20356-B548-4FA3-BACE-064E05618D48}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -3332,5 +3342,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/chile/pruebas.xlsx
+++ b/chile/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/carlos_galeana_betancourt_intel_com/Documents/Documents/Licitaciones/chile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{B0E9FF15-9BA7-4BA4-8C2E-6D0886922B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{672834CA-6AE8-48A2-A55D-28296C3FF6FE}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B0E9FF15-9BA7-4BA4-8C2E-6D0886922B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC75BDD-239E-4144-9EC6-6D66DF7D9D96}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{7513E270-662B-4E94-960E-A800442B2A61}"/>
   </bookViews>
@@ -2813,13 +2813,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D20356-B548-4FA3-BACE-064E05618D48}">
   <dimension ref="A1:X7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
